--- a/similarities/split_global/harmonic_similarity_timestamps_16.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_282</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['D/5', 'E/4', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:42.305079', '0:00:48.272607')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:05.544000', '0:00:09.340000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=42.305079</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=5.544</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['A:7', 'D:maj', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['F:maj', 'G', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['Eb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000'), ('0:00:13.120000', '0:00:19.960000'), ('0:00:38.240000', '0:00:44.080000'), ('0:00:36.400000', '0:00:41.700000')]</t>
+          <t>('0:00:32.808000', '0:00:36.091000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:23.040000', '0:00:28.920000'), ('0:00:07.840000', '0:00:11.420000'), ('0:00:12.560000', '0:00:19.540000'), ('0:00:35.700000', '0:00:38.280000'), ('0:00:40.640000', '0:00:42.420000')]</t>
+          <t>('0:00:59.292687', '0:01:14.118628')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=38.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=35.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=59.292687</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:43.320000')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:23.500000', '0:02:56.780000')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=143.5']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:39.610440', '0:00:45.427039')]</t>
+          <t>('0:01:17.720000', '0:01:28')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:09.120000', '0:02:11.120000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=129.12']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:01:17.720000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:27.246961')]</t>
+          <t>('0:00:10.380000', '0:00:16.320000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:01.920000', '0:00:08.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:28.613356', '0:00:42.313129')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:01:14.340000', '0:01:16.860000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=28.613356</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=74.34</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['B', 'F#', 'B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:00:24.838594', '0:00:43.252018')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:09.140000', '0:00:16.920000'), ('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:00:15.260000', '0:00:45.460000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000'), ('0:01:14.800000', '0:01:21.060000')]</t>
+          <t>('0:01:14.700000', '0:01:34.120000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=15.26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:12.150000', '0:02:21.440000')]</t>
+          <t>('0:00:07.360000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:04.620000')]</t>
+          <t>('0:00:23.980000', '0:00:31.920000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=132.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=23.98</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:02:56.500000', '0:02:58.780000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:12.560000', '0:00:19.540000')]</t>
+          <t>('0:00:44.620000', '0:00:47.460000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=176.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=44.62</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:03')]</t>
+          <t>('0:00:08.158789', '0:00:22.589990')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:46.740000', '0:00:58.460000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=46.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min/4', 'A', 'D:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:min/G', 'B:maj/F#', 'E:min/G']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:31.785035', '0:00:36.150690')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:14.120000', '0:01:16.040000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=31.785035']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=74.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>isophonics_283</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>['B', 'E', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:00:59.333356', '0:01:08.841927')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
+          <t>('0:00:14.033000', '0:00:28.278000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=59.333356</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=14.033</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
